--- a/data_output/Excess Mortality/Countries/2021/2021_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(30-34) - (35-39).xlsx
+++ b/data_output/Excess Mortality/Countries/2021/2021_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(30-34) - (35-39).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="432">
   <si>
     <t>Sex</t>
   </si>
@@ -193,7 +193,7 @@
     <t>69.8 (±3.7)</t>
   </si>
   <si>
-    <t>104.8 (±10.1)</t>
+    <t>111.0 (±11.4)</t>
   </si>
   <si>
     <t>126.8 (±8.5)</t>
@@ -205,7 +205,7 @@
     <t>6.2 (±1.3)</t>
   </si>
   <si>
-    <t>91.4 (±5.0)</t>
+    <t>100.0 (±5.5)</t>
   </si>
   <si>
     <t>47.6 (±5.3)</t>
@@ -214,7 +214,7 @@
     <t>20.6 (±5.0)</t>
   </si>
   <si>
-    <t>48.2 (±6.6)</t>
+    <t>51.0 (±5.9)</t>
   </si>
   <si>
     <t>563.6 (±23.5)</t>
@@ -268,7 +268,7 @@
     <t>55.0 (±4.8)</t>
   </si>
   <si>
-    <t>58.2 (±7.6)</t>
+    <t>82.4 (±9.9)</t>
   </si>
   <si>
     <t>16.4 (±2.5)</t>
@@ -277,7 +277,7 @@
     <t>266.8 (±9.7)</t>
   </si>
   <si>
-    <t>82.6 (±9.6)</t>
+    <t>86.0 (±8.5)</t>
   </si>
   <si>
     <t>54.4 (±6.0)</t>
@@ -286,7 +286,7 @@
     <t>-5.8 (±3.7)</t>
   </si>
   <si>
-    <t>5.2 (±10.1)</t>
+    <t>4.0 (±11.4)</t>
   </si>
   <si>
     <t>12.2 (±8.5)</t>
@@ -298,7 +298,7 @@
     <t>-4.2 (±1.3)</t>
   </si>
   <si>
-    <t>34.6 (±5.0)</t>
+    <t>31.0 (±5.5)</t>
   </si>
   <si>
     <t>2.4 (±5.3)</t>
@@ -307,7 +307,7 @@
     <t>-4.6 (±5.0)</t>
   </si>
   <si>
-    <t>-8.2 (±6.6)</t>
+    <t>-5.0 (±5.9)</t>
   </si>
   <si>
     <t>-37.6 (±23.5)</t>
@@ -361,7 +361,7 @@
     <t>-19.0 (±4.8)</t>
   </si>
   <si>
-    <t>0.8 (±7.6)</t>
+    <t>-1.4 (±9.9)</t>
   </si>
   <si>
     <t>-7.4 (±2.5)</t>
@@ -370,7 +370,7 @@
     <t>-33.8 (±9.7)</t>
   </si>
   <si>
-    <t>-4.6 (±9.6)</t>
+    <t>-5.0 (±8.5)</t>
   </si>
   <si>
     <t>-5.4 (±6.0)</t>
@@ -379,7 +379,7 @@
     <t>-8.3% (±4.6%)</t>
   </si>
   <si>
-    <t>5.0% (±9.3%)</t>
+    <t>3.6% (±9.6%)</t>
   </si>
   <si>
     <t>9.6% (±6.9%)</t>
@@ -391,7 +391,7 @@
     <t>-67.7% (±5.6%)</t>
   </si>
   <si>
-    <t>37.9% (±7.2%)</t>
+    <t>31.0% (±6.8%)</t>
   </si>
   <si>
     <t>5.0% (±10.5%)</t>
@@ -400,7 +400,7 @@
     <t>-22.3% (±15.2%)</t>
   </si>
   <si>
-    <t>-17.0% (±10.0%)</t>
+    <t>-9.8% (±9.4%)</t>
   </si>
   <si>
     <t>-6.7% (±3.7%)</t>
@@ -454,7 +454,7 @@
     <t>-34.5% (±5.3%)</t>
   </si>
   <si>
-    <t>1.4% (±11.7%)</t>
+    <t>-1.7% (±10.5%)</t>
   </si>
   <si>
     <t>-45.1% (±7.3%)</t>
@@ -463,7 +463,7 @@
     <t>-12.7% (±3.0%)</t>
   </si>
   <si>
-    <t>-5.6% (±9.8%)</t>
+    <t>-5.8% (±8.5%)</t>
   </si>
   <si>
     <t>-9.9% (±9.0%)</t>
@@ -472,66 +472,69 @@
     <t>-1.0(±0.7)</t>
   </si>
   <si>
+    <t>0.5(±1.6)</t>
+  </si>
+  <si>
+    <t>2.6(±1.9)</t>
+  </si>
+  <si>
+    <t>0.4(±1.7)</t>
+  </si>
+  <si>
+    <t>-5.8(±1.8)</t>
+  </si>
+  <si>
+    <t>4.3(±0.8)</t>
+  </si>
+  <si>
+    <t>0.7(±1.6)</t>
+  </si>
+  <si>
+    <t>-4.9(±5.3)</t>
+  </si>
+  <si>
+    <t>-1.5(±1.8)</t>
+  </si>
+  <si>
+    <t>-0.9(±0.6)</t>
+  </si>
+  <si>
+    <t>-2.8(±1.7)</t>
+  </si>
+  <si>
+    <t>3.0(±1.1)</t>
+  </si>
+  <si>
+    <t>-8.9(±6.1)</t>
+  </si>
+  <si>
+    <t>-0.6(±0.4)</t>
+  </si>
+  <si>
+    <t>0.9(±4.7)</t>
+  </si>
+  <si>
+    <t>-8.1(±16.2)</t>
+  </si>
+  <si>
+    <t>3.4(±5.0)</t>
+  </si>
+  <si>
+    <t>3.7(±1.2)</t>
+  </si>
+  <si>
+    <t>-1.0(±4.2)</t>
+  </si>
+  <si>
+    <t>5.0(±3.0)</t>
+  </si>
+  <si>
+    <t>1.1(±0.9)</t>
+  </si>
+  <si>
     <t>0.7(±1.3)</t>
   </si>
   <si>
-    <t>2.6(±1.9)</t>
-  </si>
-  <si>
-    <t>0.4(±1.7)</t>
-  </si>
-  <si>
-    <t>-5.8(±1.8)</t>
-  </si>
-  <si>
-    <t>4.8(±0.7)</t>
-  </si>
-  <si>
-    <t>0.7(±1.6)</t>
-  </si>
-  <si>
-    <t>-4.9(±5.3)</t>
-  </si>
-  <si>
-    <t>-2.4(±1.9)</t>
-  </si>
-  <si>
-    <t>-0.9(±0.6)</t>
-  </si>
-  <si>
-    <t>-2.8(±1.7)</t>
-  </si>
-  <si>
-    <t>3.0(±1.1)</t>
-  </si>
-  <si>
-    <t>-8.9(±6.1)</t>
-  </si>
-  <si>
-    <t>-0.6(±0.4)</t>
-  </si>
-  <si>
-    <t>0.9(±4.7)</t>
-  </si>
-  <si>
-    <t>-8.1(±16.2)</t>
-  </si>
-  <si>
-    <t>3.4(±5.0)</t>
-  </si>
-  <si>
-    <t>3.7(±1.2)</t>
-  </si>
-  <si>
-    <t>-1.0(±4.2)</t>
-  </si>
-  <si>
-    <t>5.0(±3.0)</t>
-  </si>
-  <si>
-    <t>1.1(±0.9)</t>
-  </si>
-  <si>
     <t>3.3(±0.7)</t>
   </si>
   <si>
@@ -544,7 +547,7 @@
     <t>-4.1(±1.0)</t>
   </si>
   <si>
-    <t>0.2(±1.8)</t>
+    <t>-0.3(±2.4)</t>
   </si>
   <si>
     <t>-5.5(±1.9)</t>
@@ -553,7 +556,7 @@
     <t>-1.1(±0.3)</t>
   </si>
   <si>
-    <t>-0.7(±1.5)</t>
+    <t>-0.8(±1.3)</t>
   </si>
   <si>
     <t>-0.9(±1.0)</t>
@@ -565,7 +568,7 @@
     <t>128.0 (±3.6)</t>
   </si>
   <si>
-    <t>215.4 (±16.8)</t>
+    <t>229.6 (±15.8)</t>
   </si>
   <si>
     <t>284.0 (±6.2)</t>
@@ -577,7 +580,7 @@
     <t>10.6 (±1.2)</t>
   </si>
   <si>
-    <t>232.0 (±11.3)</t>
+    <t>244.8 (±12.1)</t>
   </si>
   <si>
     <t>84.0 (±5.7)</t>
@@ -586,7 +589,7 @@
     <t>65.0 (±14.4)</t>
   </si>
   <si>
-    <t>127.8 (±3.2)</t>
+    <t>134.6 (±3.6)</t>
   </si>
   <si>
     <t>1243.6 (±41.4)</t>
@@ -637,7 +640,7 @@
     <t>103.4 (±12.4)</t>
   </si>
   <si>
-    <t>151.0 (±12.0)</t>
+    <t>205.8 (±15.1)</t>
   </si>
   <si>
     <t>39.4 (±1.9)</t>
@@ -646,7 +649,7 @@
     <t>469.0 (±25.8)</t>
   </si>
   <si>
-    <t>145.0 (±5.6)</t>
+    <t>156.8 (±8.4)</t>
   </si>
   <si>
     <t>106.4 (±8.6)</t>
@@ -655,7 +658,7 @@
     <t>20.0 (±3.6)</t>
   </si>
   <si>
-    <t>-11.4 (±16.8)</t>
+    <t>-9.6 (±15.8)</t>
   </si>
   <si>
     <t>-18.0 (±6.2)</t>
@@ -667,7 +670,7 @@
     <t>-6.6 (±1.2)</t>
   </si>
   <si>
-    <t>6.0 (±11.3)</t>
+    <t>13.2 (±12.1)</t>
   </si>
   <si>
     <t>-5.0 (±5.7)</t>
@@ -676,7 +679,7 @@
     <t>-14.0 (±14.4)</t>
   </si>
   <si>
-    <t>-20.8 (±3.2)</t>
+    <t>-17.6 (±3.6)</t>
   </si>
   <si>
     <t>-76.6 (±41.4)</t>
@@ -727,7 +730,7 @@
     <t>-31.4 (±12.4)</t>
   </si>
   <si>
-    <t>10.0 (±12.0)</t>
+    <t>0.2 (±15.1)</t>
   </si>
   <si>
     <t>-8.4 (±1.9)</t>
@@ -736,7 +739,7 @@
     <t>-10.0 (±25.8)</t>
   </si>
   <si>
-    <t>-10.0 (±5.6)</t>
+    <t>-15.8 (±8.4)</t>
   </si>
   <si>
     <t>-26.4 (±8.6)</t>
@@ -745,7 +748,7 @@
     <t>15.6% (±3.1%)</t>
   </si>
   <si>
-    <t>-5.3% (±6.8%)</t>
+    <t>-4.2% (±6.2%)</t>
   </si>
   <si>
     <t>-6.3% (±2.0%)</t>
@@ -757,7 +760,7 @@
     <t>-62.3% (±3.8%)</t>
   </si>
   <si>
-    <t>2.6% (±4.8%)</t>
+    <t>5.4% (±5.0%)</t>
   </si>
   <si>
     <t>-6.0% (±5.9%)</t>
@@ -766,7 +769,7 @@
     <t>-21.5% (±14.3%)</t>
   </si>
   <si>
-    <t>-16.3% (±2.0%)</t>
+    <t>-13.1% (±2.2%)</t>
   </si>
   <si>
     <t>-6.2% (±3.0%)</t>
@@ -817,7 +820,7 @@
     <t>-30.4% (±7.4%)</t>
   </si>
   <si>
-    <t>6.6% (±7.8%)</t>
+    <t>0.1% (±6.8%)</t>
   </si>
   <si>
     <t>-21.3% (±3.6%)</t>
@@ -826,7 +829,7 @@
     <t>-2.1% (±5.1%)</t>
   </si>
   <si>
-    <t>-6.9% (±3.5%)</t>
+    <t>-10.1% (±4.5%)</t>
   </si>
   <si>
     <t>-24.8% (±5.6%)</t>
@@ -835,7 +838,7 @@
     <t>3.2(±0.6)</t>
   </si>
   <si>
-    <t>-1.5(±2.2)</t>
+    <t>-1.3(±2.1)</t>
   </si>
   <si>
     <t>-3.6(±1.2)</t>
@@ -847,7 +850,7 @@
     <t>-9.3(±1.7)</t>
   </si>
   <si>
-    <t>0.8(±1.5)</t>
+    <t>1.7(±1.6)</t>
   </si>
   <si>
     <t>-1.4(±1.6)</t>
@@ -856,7 +859,7 @@
     <t>-13.6(±14.0)</t>
   </si>
   <si>
-    <t>-5.7(±0.9)</t>
+    <t>-4.8(±1.0)</t>
   </si>
   <si>
     <t>-1.9(±1.0)</t>
@@ -910,7 +913,7 @@
     <t>-6.5(±2.6)</t>
   </si>
   <si>
-    <t>2.3(±2.8)</t>
+    <t>0.0(±3.5)</t>
   </si>
   <si>
     <t>-5.5(±1.3)</t>
@@ -919,7 +922,7 @@
     <t>-0.3(±0.8)</t>
   </si>
   <si>
-    <t>-1.4(±0.8)</t>
+    <t>-2.3(±1.2)</t>
   </si>
   <si>
     <t>-4.3(±1.4)</t>
@@ -931,7 +934,7 @@
     <t>197.8 (±3.5)</t>
   </si>
   <si>
-    <t>320.2 (±24.5)</t>
+    <t>340.6 (±24.4)</t>
   </si>
   <si>
     <t>410.8 (±13.5)</t>
@@ -943,7 +946,7 @@
     <t>16.8 (±1.7)</t>
   </si>
   <si>
-    <t>323.4 (±14.9)</t>
+    <t>344.8 (±16.2)</t>
   </si>
   <si>
     <t>131.6 (±8.2)</t>
@@ -952,7 +955,7 @@
     <t>85.6 (±16.7)</t>
   </si>
   <si>
-    <t>176.0 (±6.6)</t>
+    <t>185.6 (±4.6)</t>
   </si>
   <si>
     <t>1807.2 (±58.8)</t>
@@ -1006,7 +1009,7 @@
     <t>158.4 (±17.0)</t>
   </si>
   <si>
-    <t>209.2 (±9.3)</t>
+    <t>288.2 (±11.0)</t>
   </si>
   <si>
     <t>55.8 (±3.9)</t>
@@ -1015,7 +1018,7 @@
     <t>735.8 (±32.7)</t>
   </si>
   <si>
-    <t>227.6 (±11.8)</t>
+    <t>242.8 (±13.5)</t>
   </si>
   <si>
     <t>160.8 (±13.4)</t>
@@ -1024,7 +1027,7 @@
     <t>14.2 (±3.5)</t>
   </si>
   <si>
-    <t>-6.2 (±24.5)</t>
+    <t>-5.6 (±24.4)</t>
   </si>
   <si>
     <t>-5.8 (±13.5)</t>
@@ -1036,7 +1039,7 @@
     <t>-10.8 (±1.7)</t>
   </si>
   <si>
-    <t>40.6 (±14.9)</t>
+    <t>44.2 (±16.2)</t>
   </si>
   <si>
     <t>-2.6 (±8.2)</t>
@@ -1045,7 +1048,7 @@
     <t>-18.6 (±16.7)</t>
   </si>
   <si>
-    <t>-29.0 (±6.6)</t>
+    <t>-22.6 (±4.6)</t>
   </si>
   <si>
     <t>-114.2 (±58.8)</t>
@@ -1099,7 +1102,7 @@
     <t>-50.4 (±17.0)</t>
   </si>
   <si>
-    <t>10.8 (±9.3)</t>
+    <t>-1.2 (±11.0)</t>
   </si>
   <si>
     <t>-15.8 (±3.9)</t>
@@ -1108,7 +1111,7 @@
     <t>-43.8 (±32.7)</t>
   </si>
   <si>
-    <t>-14.6 (±11.8)</t>
+    <t>-20.8 (±13.5)</t>
   </si>
   <si>
     <t>-31.8 (±13.4)</t>
@@ -1117,7 +1120,7 @@
     <t>7.2% (±1.9%)</t>
   </si>
   <si>
-    <t>-1.9% (±7.0%)</t>
+    <t>-1.6% (±6.6%)</t>
   </si>
   <si>
     <t>-1.4% (±3.1%)</t>
@@ -1129,7 +1132,7 @@
     <t>-64.3% (±3.3%)</t>
   </si>
   <si>
-    <t>12.6% (±5.0%)</t>
+    <t>12.8% (±5.0%)</t>
   </si>
   <si>
     <t>-2.0% (±5.7%)</t>
@@ -1138,7 +1141,7 @@
     <t>-21.7% (±12.8%)</t>
   </si>
   <si>
-    <t>-16.5% (±3.0%)</t>
+    <t>-12.2% (±2.1%)</t>
   </si>
   <si>
     <t>-6.3% (±3.0%)</t>
@@ -1189,7 +1192,7 @@
     <t>-31.8% (±6.6%)</t>
   </si>
   <si>
-    <t>5.2% (±4.5%)</t>
+    <t>-0.4% (±3.7%)</t>
   </si>
   <si>
     <t>-28.3% (±4.7%)</t>
@@ -1198,7 +1201,7 @@
     <t>-6.0% (±4.0%)</t>
   </si>
   <si>
-    <t>-6.4% (±4.6%)</t>
+    <t>-8.6% (±4.8%)</t>
   </si>
   <si>
     <t>-19.8% (±6.1%)</t>
@@ -1207,7 +1210,7 @@
     <t>1.2(±0.3)</t>
   </si>
   <si>
-    <t>-0.4(±1.6)</t>
+    <t>-0.4(±1.7)</t>
   </si>
   <si>
     <t>-0.6(±1.4)</t>
@@ -1219,15 +1222,15 @@
     <t>-7.5(±1.2)</t>
   </si>
   <si>
-    <t>2.7(±1.0)</t>
-  </si>
-  <si>
     <t>-0.4(±1.2)</t>
   </si>
   <si>
     <t>-9.5(±8.5)</t>
   </si>
   <si>
+    <t>-3.2(±0.7)</t>
+  </si>
+  <si>
     <t>-1.4(±0.7)</t>
   </si>
   <si>
@@ -1279,7 +1282,7 @@
     <t>-5.3(±1.8)</t>
   </si>
   <si>
-    <t>1.3(±1.1)</t>
+    <t>-0.1(±1.3)</t>
   </si>
   <si>
     <t>-5.5(±1.4)</t>
@@ -1288,7 +1291,7 @@
     <t>-0.7(±0.5)</t>
   </si>
   <si>
-    <t>-1.1(±0.9)</t>
+    <t>-1.5(±1.0)</t>
   </si>
   <si>
     <t>-2.6(±1.1)</t>
@@ -1835,52 +1838,52 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E3">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F3">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G3">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H3">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I3">
-        <v>104.8</v>
+        <v>111</v>
       </c>
       <c r="J3">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>1.96</v>
       </c>
       <c r="L3">
-        <v>10.1</v>
+        <v>11.4</v>
       </c>
       <c r="M3">
-        <v>94.69999999999997</v>
+        <v>99.59999999999995</v>
       </c>
       <c r="N3">
-        <v>114.9</v>
+        <v>122.4</v>
       </c>
       <c r="O3">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>10.1</v>
+        <v>11.4</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="R3">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="S3" t="s">
         <v>58</v>
@@ -1895,10 +1898,10 @@
         <v>749098</v>
       </c>
       <c r="W3">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X3">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="Y3" t="s">
         <v>151</v>
@@ -2143,52 +2146,52 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D7">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>91</v>
+      </c>
+      <c r="F7">
+        <v>106</v>
+      </c>
+      <c r="G7">
         <v>94</v>
       </c>
-      <c r="E7">
-        <v>84</v>
-      </c>
-      <c r="F7">
-        <v>97</v>
-      </c>
-      <c r="G7">
-        <v>85</v>
-      </c>
       <c r="H7">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I7">
-        <v>91.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="J7">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="K7">
         <v>1.96</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M7">
-        <v>86.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="N7">
-        <v>96.40000000000001</v>
+        <v>105.5</v>
       </c>
       <c r="O7">
-        <v>34.6</v>
+        <v>31</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q7">
-        <v>37.9</v>
+        <v>31</v>
       </c>
       <c r="R7">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="S7" t="s">
         <v>62</v>
@@ -2203,10 +2206,10 @@
         <v>717952</v>
       </c>
       <c r="W7">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="X7">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Y7" t="s">
         <v>155</v>
@@ -2374,52 +2377,52 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>48.2</v>
+        <v>51</v>
       </c>
       <c r="J10">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="K10">
         <v>1.96</v>
       </c>
       <c r="L10">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="M10">
-        <v>41.6</v>
+        <v>45.1</v>
       </c>
       <c r="N10">
-        <v>54.8</v>
+        <v>56.9</v>
       </c>
       <c r="O10">
-        <v>-8.199999999999999</v>
+        <v>-5</v>
       </c>
       <c r="P10">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="Q10">
-        <v>-17</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="R10">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="S10" t="s">
         <v>65</v>
@@ -2434,10 +2437,10 @@
         <v>344313</v>
       </c>
       <c r="W10">
-        <v>-2.4</v>
+        <v>-1.5</v>
       </c>
       <c r="X10">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Y10" t="s">
         <v>158</v>
@@ -3441,7 +3444,7 @@
         <v>1.3</v>
       </c>
       <c r="Y23" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -3518,7 +3521,7 @@
         <v>0.7</v>
       </c>
       <c r="Y24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -3595,7 +3598,7 @@
         <v>1.5</v>
       </c>
       <c r="Y25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -3672,7 +3675,7 @@
         <v>1.2</v>
       </c>
       <c r="Y26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3749,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="Y27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3760,52 +3763,52 @@
         <v>52</v>
       </c>
       <c r="C28">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D28">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="E28">
+        <v>94</v>
+      </c>
+      <c r="F28">
         <v>65</v>
       </c>
-      <c r="F28">
-        <v>45</v>
-      </c>
       <c r="G28">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="H28">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="I28">
-        <v>58.2</v>
+        <v>82.39999999999998</v>
       </c>
       <c r="J28">
-        <v>8.699999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="K28">
         <v>1.96</v>
       </c>
       <c r="L28">
-        <v>7.6</v>
+        <v>9.9</v>
       </c>
       <c r="M28">
-        <v>50.6</v>
+        <v>72.49999999999997</v>
       </c>
       <c r="N28">
-        <v>65.8</v>
+        <v>92.29999999999998</v>
       </c>
       <c r="O28">
-        <v>0.8</v>
+        <v>-1.4</v>
       </c>
       <c r="P28">
-        <v>7.6</v>
+        <v>9.9</v>
       </c>
       <c r="Q28">
-        <v>1.4</v>
+        <v>-1.7</v>
       </c>
       <c r="R28">
-        <v>11.7</v>
+        <v>10.5</v>
       </c>
       <c r="S28" t="s">
         <v>83</v>
@@ -3820,13 +3823,13 @@
         <v>412863</v>
       </c>
       <c r="W28">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="X28">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -3903,7 +3906,7 @@
         <v>1.9</v>
       </c>
       <c r="Y29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -3980,7 +3983,7 @@
         <v>0.3</v>
       </c>
       <c r="Y30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -3991,52 +3994,52 @@
         <v>55</v>
       </c>
       <c r="C31">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D31">
+        <v>85</v>
+      </c>
+      <c r="E31">
+        <v>96</v>
+      </c>
+      <c r="F31">
+        <v>98</v>
+      </c>
+      <c r="G31">
+        <v>76</v>
+      </c>
+      <c r="H31">
         <v>81</v>
       </c>
-      <c r="E31">
-        <v>94</v>
-      </c>
-      <c r="F31">
-        <v>96</v>
-      </c>
-      <c r="G31">
-        <v>73</v>
-      </c>
-      <c r="H31">
-        <v>78</v>
-      </c>
       <c r="I31">
-        <v>82.59999999999998</v>
+        <v>85.99999999999997</v>
       </c>
       <c r="J31">
-        <v>10.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K31">
         <v>1.96</v>
       </c>
       <c r="L31">
-        <v>9.6</v>
+        <v>8.5</v>
       </c>
       <c r="M31">
-        <v>72.99999999999999</v>
+        <v>77.49999999999997</v>
       </c>
       <c r="N31">
-        <v>92.19999999999997</v>
+        <v>94.49999999999997</v>
       </c>
       <c r="O31">
-        <v>-4.6</v>
+        <v>-5</v>
       </c>
       <c r="P31">
-        <v>9.6</v>
+        <v>8.5</v>
       </c>
       <c r="Q31">
-        <v>-5.6</v>
+        <v>-5.8</v>
       </c>
       <c r="R31">
-        <v>9.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="S31" t="s">
         <v>86</v>
@@ -4051,13 +4054,13 @@
         <v>665413</v>
       </c>
       <c r="W31">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="X31">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Y31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -4134,7 +4137,7 @@
         <v>1</v>
       </c>
       <c r="Y32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4229,7 +4232,7 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -4283,13 +4286,13 @@
         <v>3.1</v>
       </c>
       <c r="S2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="T2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="V2">
         <v>616542</v>
@@ -4301,89 +4304,89 @@
         <v>0.6</v>
       </c>
       <c r="Y2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D3">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E3">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F3">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G3">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="H3">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I3">
-        <v>215.4</v>
+        <v>229.6000000000001</v>
       </c>
       <c r="J3">
-        <v>19.2</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>1.96</v>
       </c>
       <c r="L3">
-        <v>16.8</v>
+        <v>15.8</v>
       </c>
       <c r="M3">
-        <v>198.6</v>
+        <v>213.8</v>
       </c>
       <c r="N3">
-        <v>232.2</v>
+        <v>245.4000000000001</v>
       </c>
       <c r="O3">
-        <v>-11.4</v>
+        <v>-9.6</v>
       </c>
       <c r="P3">
-        <v>16.8</v>
+        <v>15.8</v>
       </c>
       <c r="Q3">
-        <v>-5.3</v>
+        <v>-4.2</v>
       </c>
       <c r="R3">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="S3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="V3">
         <v>750318</v>
       </c>
       <c r="W3">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="X3">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -4437,13 +4440,13 @@
         <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="V4">
         <v>493641</v>
@@ -4455,12 +4458,12 @@
         <v>1.2</v>
       </c>
       <c r="Y4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -4514,13 +4517,13 @@
         <v>14</v>
       </c>
       <c r="S5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="V5">
         <v>275641</v>
@@ -4532,12 +4535,12 @@
         <v>5</v>
       </c>
       <c r="Y5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -4591,13 +4594,13 @@
         <v>3.8</v>
       </c>
       <c r="S6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="V6">
         <v>71198</v>
@@ -4609,89 +4612,89 @@
         <v>1.7</v>
       </c>
       <c r="Y6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D7">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="E7">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F7">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="G7">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="H7">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="I7">
-        <v>232</v>
+        <v>244.8</v>
       </c>
       <c r="J7">
-        <v>12.9</v>
+        <v>13.8</v>
       </c>
       <c r="K7">
         <v>1.96</v>
       </c>
       <c r="L7">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="M7">
-        <v>220.7</v>
+        <v>232.7</v>
       </c>
       <c r="N7">
-        <v>243.3</v>
+        <v>256.9</v>
       </c>
       <c r="O7">
-        <v>6</v>
+        <v>13.2</v>
       </c>
       <c r="P7">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="Q7">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="R7">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="V7">
         <v>767173</v>
       </c>
       <c r="W7">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="X7">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Y7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -4745,13 +4748,13 @@
         <v>5.9</v>
       </c>
       <c r="S8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="U8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="V8">
         <v>348812</v>
@@ -4763,12 +4766,12 @@
         <v>1.6</v>
       </c>
       <c r="Y8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -4822,13 +4825,13 @@
         <v>14.3</v>
       </c>
       <c r="S9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="V9">
         <v>102693</v>
@@ -4840,89 +4843,89 @@
         <v>14</v>
       </c>
       <c r="Y9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10">
+        <v>141</v>
+      </c>
+      <c r="D10">
         <v>134</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>135</v>
+      </c>
+      <c r="F10">
+        <v>135</v>
+      </c>
+      <c r="G10">
         <v>128</v>
       </c>
-      <c r="E10">
-        <v>123</v>
-      </c>
-      <c r="F10">
-        <v>128</v>
-      </c>
-      <c r="G10">
-        <v>126</v>
-      </c>
       <c r="H10">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I10">
-        <v>127.8</v>
+        <v>134.6</v>
       </c>
       <c r="J10">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="K10">
         <v>1.96</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>124.6</v>
+        <v>131</v>
       </c>
       <c r="N10">
-        <v>131</v>
+        <v>138.2</v>
       </c>
       <c r="O10">
-        <v>-20.8</v>
+        <v>-17.6</v>
       </c>
       <c r="P10">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q10">
-        <v>-16.3</v>
+        <v>-13.1</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="U10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V10">
         <v>367237</v>
       </c>
       <c r="W10">
-        <v>-5.7</v>
+        <v>-4.8</v>
       </c>
       <c r="X10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -4976,13 +4979,13 @@
         <v>3</v>
       </c>
       <c r="S11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="U11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="V11">
         <v>4048789</v>
@@ -4994,12 +4997,12 @@
         <v>1</v>
       </c>
       <c r="Y11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -5053,13 +5056,13 @@
         <v>8</v>
       </c>
       <c r="S12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="V12">
         <v>667848</v>
@@ -5071,12 +5074,12 @@
         <v>2.5</v>
       </c>
       <c r="Y12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -5130,13 +5133,13 @@
         <v>7.2</v>
       </c>
       <c r="S13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="V13">
         <v>652020</v>
@@ -5148,12 +5151,12 @@
         <v>2.6</v>
       </c>
       <c r="Y13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -5207,13 +5210,13 @@
         <v>16.6</v>
       </c>
       <c r="S14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V14">
         <v>28808</v>
@@ -5225,12 +5228,12 @@
         <v>5.9</v>
       </c>
       <c r="Y14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -5284,13 +5287,13 @@
         <v>8.6</v>
       </c>
       <c r="S15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V15">
         <v>3451730</v>
@@ -5302,12 +5305,12 @@
         <v>1.2</v>
       </c>
       <c r="Y15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -5361,13 +5364,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="V16">
         <v>137752</v>
@@ -5379,12 +5382,12 @@
         <v>12.4</v>
       </c>
       <c r="Y16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -5456,12 +5459,12 @@
         <v>16</v>
       </c>
       <c r="Y17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -5515,13 +5518,13 @@
         <v>8.699999999999999</v>
       </c>
       <c r="S18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="V18">
         <v>188972</v>
@@ -5533,12 +5536,12 @@
         <v>10.9</v>
       </c>
       <c r="Y18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -5592,13 +5595,13 @@
         <v>18.1</v>
       </c>
       <c r="S19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="U19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V19">
         <v>49672</v>
@@ -5610,12 +5613,12 @@
         <v>3.6</v>
       </c>
       <c r="Y19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
@@ -5669,13 +5672,13 @@
         <v>25.5</v>
       </c>
       <c r="S20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="U20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V20">
         <v>48450</v>
@@ -5687,12 +5690,12 @@
         <v>3.9</v>
       </c>
       <c r="Y20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -5746,13 +5749,13 @@
         <v>17.7</v>
       </c>
       <c r="S21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="V21">
         <v>45465</v>
@@ -5764,12 +5767,12 @@
         <v>2.5</v>
       </c>
       <c r="Y21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
@@ -5823,13 +5826,13 @@
         <v>5</v>
       </c>
       <c r="S22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V22">
         <v>1081863</v>
@@ -5841,12 +5844,12 @@
         <v>1</v>
       </c>
       <c r="Y22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
@@ -5900,13 +5903,13 @@
         <v>4.2</v>
       </c>
       <c r="S23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="T23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="U23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="V23">
         <v>374420</v>
@@ -5918,12 +5921,12 @@
         <v>1.5</v>
       </c>
       <c r="Y23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
@@ -5977,13 +5980,13 @@
         <v>3.7</v>
       </c>
       <c r="S24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="T24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="V24">
         <v>3057204</v>
@@ -5995,12 +5998,12 @@
         <v>2.3</v>
       </c>
       <c r="Y24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -6054,13 +6057,13 @@
         <v>7.1</v>
       </c>
       <c r="S25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="V25">
         <v>601737</v>
@@ -6072,12 +6075,12 @@
         <v>2.7</v>
       </c>
       <c r="Y25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -6131,13 +6134,13 @@
         <v>3.5</v>
       </c>
       <c r="S26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U26" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V26">
         <v>1394790</v>
@@ -6149,12 +6152,12 @@
         <v>1.4</v>
       </c>
       <c r="Y26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
@@ -6208,13 +6211,13 @@
         <v>7.4</v>
       </c>
       <c r="S27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="U27" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="V27">
         <v>481517</v>
@@ -6226,89 +6229,89 @@
         <v>2.6</v>
       </c>
       <c r="Y27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
         <v>52</v>
       </c>
       <c r="C28">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="D28">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="E28">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="F28">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="G28">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="H28">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="I28">
-        <v>151</v>
+        <v>205.8</v>
       </c>
       <c r="J28">
-        <v>13.7</v>
+        <v>17.2</v>
       </c>
       <c r="K28">
         <v>1.96</v>
       </c>
       <c r="L28">
-        <v>12</v>
+        <v>15.1</v>
       </c>
       <c r="M28">
-        <v>139</v>
+        <v>190.7</v>
       </c>
       <c r="N28">
-        <v>163</v>
+        <v>220.9</v>
       </c>
       <c r="O28">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="P28">
-        <v>12</v>
+        <v>15.1</v>
       </c>
       <c r="Q28">
-        <v>6.6</v>
+        <v>0.1</v>
       </c>
       <c r="R28">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="S28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="T28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V28">
         <v>434608</v>
       </c>
       <c r="W28">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Y28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -6362,13 +6365,13 @@
         <v>3.6</v>
       </c>
       <c r="S29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U29" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="V29">
         <v>153629</v>
@@ -6380,12 +6383,12 @@
         <v>1.3</v>
       </c>
       <c r="Y29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s">
         <v>54</v>
@@ -6439,13 +6442,13 @@
         <v>5.1</v>
       </c>
       <c r="S30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="U30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="V30">
         <v>3042525</v>
@@ -6457,89 +6460,89 @@
         <v>0.8</v>
       </c>
       <c r="Y30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
         <v>55</v>
       </c>
       <c r="C31">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D31">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E31">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F31">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G31">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H31">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I31">
-        <v>145</v>
+        <v>156.8</v>
       </c>
       <c r="J31">
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
       <c r="K31">
         <v>1.96</v>
       </c>
       <c r="L31">
-        <v>5.6</v>
+        <v>8.4</v>
       </c>
       <c r="M31">
-        <v>139.4</v>
+        <v>148.4</v>
       </c>
       <c r="N31">
-        <v>150.6</v>
+        <v>165.2</v>
       </c>
       <c r="O31">
-        <v>-10</v>
+        <v>-15.8</v>
       </c>
       <c r="P31">
-        <v>5.6</v>
+        <v>8.4</v>
       </c>
       <c r="Q31">
-        <v>-6.9</v>
+        <v>-10.1</v>
       </c>
       <c r="R31">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="S31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V31">
         <v>701076</v>
       </c>
       <c r="W31">
-        <v>-1.4</v>
+        <v>-2.3</v>
       </c>
       <c r="X31">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="Y31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s">
         <v>56</v>
@@ -6593,13 +6596,13 @@
         <v>5.6</v>
       </c>
       <c r="S32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V32">
         <v>620849</v>
@@ -6611,7 +6614,7 @@
         <v>1.4</v>
       </c>
       <c r="Y32" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -6706,7 +6709,7 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -6760,13 +6763,13 @@
         <v>1.9</v>
       </c>
       <c r="S2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="U2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="V2">
         <v>1217932</v>
@@ -6778,72 +6781,72 @@
         <v>0.3</v>
       </c>
       <c r="Y2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="D3">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="E3">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="F3">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="G3">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="H3">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="I3">
-        <v>320.2</v>
+        <v>340.6000000000001</v>
       </c>
       <c r="J3">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="K3">
         <v>1.96</v>
       </c>
       <c r="L3">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="M3">
-        <v>295.7</v>
+        <v>316.2000000000001</v>
       </c>
       <c r="N3">
-        <v>344.7</v>
+        <v>365.0000000000001</v>
       </c>
       <c r="O3">
-        <v>-6.2</v>
+        <v>-5.6</v>
       </c>
       <c r="P3">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q3">
-        <v>-1.9</v>
+        <v>-1.6</v>
       </c>
       <c r="R3">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="S3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="U3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="V3">
         <v>1499416</v>
@@ -6852,15 +6855,15 @@
         <v>-0.4</v>
       </c>
       <c r="X3">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Y3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -6914,13 +6917,13 @@
         <v>3.1</v>
       </c>
       <c r="S4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="U4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="V4">
         <v>956388</v>
@@ -6932,12 +6935,12 @@
         <v>1.4</v>
       </c>
       <c r="Y4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -6991,13 +6994,13 @@
         <v>13.4</v>
       </c>
       <c r="S5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="U5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="V5">
         <v>536215</v>
@@ -7009,12 +7012,12 @@
         <v>3.2</v>
       </c>
       <c r="Y5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -7068,13 +7071,13 @@
         <v>3.3</v>
       </c>
       <c r="S6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="T6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="U6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="V6">
         <v>143651</v>
@@ -7086,89 +7089,89 @@
         <v>1.2</v>
       </c>
       <c r="Y6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="D7">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="E7">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="F7">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="G7">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="H7">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="I7">
-        <v>323.4</v>
+        <v>344.8</v>
       </c>
       <c r="J7">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="K7">
         <v>1.96</v>
       </c>
       <c r="L7">
-        <v>14.9</v>
+        <v>16.2</v>
       </c>
       <c r="M7">
-        <v>308.5</v>
+        <v>328.6</v>
       </c>
       <c r="N7">
-        <v>338.3</v>
+        <v>360.9999999999999</v>
       </c>
       <c r="O7">
-        <v>40.6</v>
+        <v>44.2</v>
       </c>
       <c r="P7">
-        <v>14.9</v>
+        <v>16.2</v>
       </c>
       <c r="Q7">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="R7">
         <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="V7">
         <v>1485125</v>
       </c>
       <c r="W7">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="Y7" t="s">
-        <v>400</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -7222,13 +7225,13 @@
         <v>5.7</v>
       </c>
       <c r="S8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="V8">
         <v>686808</v>
@@ -7245,7 +7248,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -7299,13 +7302,13 @@
         <v>12.8</v>
       </c>
       <c r="S9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="V9">
         <v>196352</v>
@@ -7322,84 +7325,84 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D10">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E10">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F10">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H10">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="I10">
-        <v>176</v>
+        <v>185.6</v>
       </c>
       <c r="J10">
-        <v>7.5</v>
+        <v>5.2</v>
       </c>
       <c r="K10">
         <v>1.96</v>
       </c>
       <c r="L10">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="M10">
-        <v>169.4</v>
+        <v>181</v>
       </c>
       <c r="N10">
-        <v>182.6</v>
+        <v>190.2</v>
       </c>
       <c r="O10">
-        <v>-29</v>
+        <v>-22.6</v>
       </c>
       <c r="P10">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="Q10">
-        <v>-16.5</v>
+        <v>-12.2</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="S10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V10">
         <v>711550</v>
       </c>
       <c r="W10">
-        <v>-4.1</v>
+        <v>-3.2</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y10" t="s">
-        <v>174</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -7453,13 +7456,13 @@
         <v>3</v>
       </c>
       <c r="S11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="T11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="V11">
         <v>8329503</v>
@@ -7471,12 +7474,12 @@
         <v>0.7</v>
       </c>
       <c r="Y11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -7530,13 +7533,13 @@
         <v>8.6</v>
       </c>
       <c r="S12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="V12">
         <v>1333233</v>
@@ -7548,12 +7551,12 @@
         <v>2.1</v>
       </c>
       <c r="Y12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -7607,13 +7610,13 @@
         <v>6.2</v>
       </c>
       <c r="S13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="T13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="V13">
         <v>1271926</v>
@@ -7625,12 +7628,12 @@
         <v>1.8</v>
       </c>
       <c r="Y13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -7684,13 +7687,13 @@
         <v>11.8</v>
       </c>
       <c r="S14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="U14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="V14">
         <v>53461</v>
@@ -7702,12 +7705,12 @@
         <v>4.3</v>
       </c>
       <c r="Y14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -7761,13 +7764,13 @@
         <v>7.6</v>
       </c>
       <c r="S15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="T15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="U15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="V15">
         <v>6854632</v>
@@ -7779,12 +7782,12 @@
         <v>0.8</v>
       </c>
       <c r="Y15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -7838,13 +7841,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="S16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="V16">
         <v>268173</v>
@@ -7856,12 +7859,12 @@
         <v>6.4</v>
       </c>
       <c r="Y16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -7915,10 +7918,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U17" t="s">
         <v>134</v>
@@ -7933,12 +7936,12 @@
         <v>8.1</v>
       </c>
       <c r="Y17" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -7992,13 +7995,13 @@
         <v>9</v>
       </c>
       <c r="S18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U18" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="V18">
         <v>359239</v>
@@ -8010,12 +8013,12 @@
         <v>7.1</v>
       </c>
       <c r="Y18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -8069,13 +8072,13 @@
         <v>19.7</v>
       </c>
       <c r="S19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="U19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="V19">
         <v>98584</v>
@@ -8087,12 +8090,12 @@
         <v>1.9</v>
       </c>
       <c r="Y19" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
@@ -8146,13 +8149,13 @@
         <v>28</v>
       </c>
       <c r="S20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="U20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="V20">
         <v>88901</v>
@@ -8164,12 +8167,12 @@
         <v>3.8</v>
       </c>
       <c r="Y20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -8223,13 +8226,13 @@
         <v>36.4</v>
       </c>
       <c r="S21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T21" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U21" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="V21">
         <v>89476</v>
@@ -8241,12 +8244,12 @@
         <v>2.5</v>
       </c>
       <c r="Y21" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
@@ -8300,13 +8303,13 @@
         <v>5</v>
       </c>
       <c r="S22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="T22" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="U22" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="V22">
         <v>2147931</v>
@@ -8318,12 +8321,12 @@
         <v>0.8</v>
       </c>
       <c r="Y22" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
@@ -8377,13 +8380,13 @@
         <v>4.5</v>
       </c>
       <c r="S23" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="U23" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="V23">
         <v>730547</v>
@@ -8395,12 +8398,12 @@
         <v>1</v>
       </c>
       <c r="Y23" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
@@ -8454,13 +8457,13 @@
         <v>3.4</v>
       </c>
       <c r="S24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T24" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="U24" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="V24">
         <v>6009458</v>
@@ -8472,12 +8475,12 @@
         <v>1.3</v>
       </c>
       <c r="Y24" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -8531,13 +8534,13 @@
         <v>6.1</v>
       </c>
       <c r="S25" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="T25" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="U25" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="V25">
         <v>1239016</v>
@@ -8549,12 +8552,12 @@
         <v>1.6</v>
       </c>
       <c r="Y25" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -8608,13 +8611,13 @@
         <v>3.4</v>
       </c>
       <c r="S26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U26" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="V26">
         <v>2694828</v>
@@ -8626,12 +8629,12 @@
         <v>1</v>
       </c>
       <c r="Y26" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
@@ -8685,13 +8688,13 @@
         <v>6.6</v>
       </c>
       <c r="S27" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="U27" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="V27">
         <v>945508</v>
@@ -8703,89 +8706,89 @@
         <v>1.8</v>
       </c>
       <c r="Y27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s">
         <v>52</v>
       </c>
       <c r="C28">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="D28">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="E28">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="F28">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="G28">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="H28">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="I28">
-        <v>209.2</v>
+        <v>288.2</v>
       </c>
       <c r="J28">
-        <v>10.6</v>
+        <v>12.5</v>
       </c>
       <c r="K28">
         <v>1.96</v>
       </c>
       <c r="L28">
-        <v>9.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="M28">
-        <v>199.9</v>
+        <v>277.2</v>
       </c>
       <c r="N28">
-        <v>218.5</v>
+        <v>299.2</v>
       </c>
       <c r="O28">
-        <v>10.8</v>
+        <v>-1.2</v>
       </c>
       <c r="P28">
-        <v>9.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="Q28">
-        <v>5.2</v>
+        <v>-0.4</v>
       </c>
       <c r="R28">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="S28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="U28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="V28">
         <v>847471</v>
       </c>
       <c r="W28">
+        <v>-0.1</v>
+      </c>
+      <c r="X28">
         <v>1.3</v>
       </c>
-      <c r="X28">
-        <v>1.1</v>
-      </c>
       <c r="Y28" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -8839,13 +8842,13 @@
         <v>4.7</v>
       </c>
       <c r="S29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="T29" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="U29" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="V29">
         <v>288802</v>
@@ -8857,12 +8860,12 @@
         <v>1.4</v>
       </c>
       <c r="Y29" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s">
         <v>54</v>
@@ -8916,13 +8919,13 @@
         <v>4</v>
       </c>
       <c r="S30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="U30" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="V30">
         <v>6103321</v>
@@ -8934,89 +8937,89 @@
         <v>0.5</v>
       </c>
       <c r="Y30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s">
         <v>55</v>
       </c>
       <c r="C31">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="D31">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="E31">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F31">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="G31">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="H31">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="I31">
-        <v>227.6</v>
+        <v>242.8</v>
       </c>
       <c r="J31">
-        <v>13.5</v>
+        <v>15.4</v>
       </c>
       <c r="K31">
         <v>1.96</v>
       </c>
       <c r="L31">
-        <v>11.8</v>
+        <v>13.5</v>
       </c>
       <c r="M31">
-        <v>215.8</v>
+        <v>229.3</v>
       </c>
       <c r="N31">
-        <v>239.4</v>
+        <v>256.3</v>
       </c>
       <c r="O31">
-        <v>-14.6</v>
+        <v>-20.8</v>
       </c>
       <c r="P31">
-        <v>11.8</v>
+        <v>13.5</v>
       </c>
       <c r="Q31">
-        <v>-6.4</v>
+        <v>-8.6</v>
       </c>
       <c r="R31">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="S31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="V31">
         <v>1366489</v>
       </c>
       <c r="W31">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="X31">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Y31" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s">
         <v>56</v>
@@ -9070,13 +9073,13 @@
         <v>6.1</v>
       </c>
       <c r="S32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="T32" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U32" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="V32">
         <v>1229176</v>
@@ -9088,7 +9091,7 @@
         <v>1.1</v>
       </c>
       <c r="Y32" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -9106,7 +9109,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -9115,18 +9118,18 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -9146,7 +9149,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -9166,10 +9169,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -9186,10 +9189,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -9206,10 +9209,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -9226,10 +9229,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -9246,7 +9249,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -9255,18 +9258,18 @@
         <v>27</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -9275,98 +9278,98 @@
         <v>27</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -9386,7 +9389,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -9406,10 +9409,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -9426,10 +9429,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -9446,10 +9449,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -9466,10 +9469,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -9506,7 +9509,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -9526,10 +9529,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -9546,10 +9549,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -9566,10 +9569,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -9586,10 +9589,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -9606,7 +9609,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -9626,7 +9629,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -9646,10 +9649,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -9666,10 +9669,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -9686,10 +9689,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
@@ -9706,10 +9709,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
@@ -9726,7 +9729,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -9735,18 +9738,18 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -9755,98 +9758,98 @@
         <v>31</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C34" t="s">
         <v>31</v>
       </c>
       <c r="D34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
       </c>
       <c r="D36">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -9866,7 +9869,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
@@ -9886,10 +9889,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
         <v>32</v>
@@ -9906,10 +9909,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
         <v>32</v>
@@ -9926,10 +9929,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B42" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C42" t="s">
         <v>32</v>
@@ -9946,10 +9949,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B43" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C43" t="s">
         <v>32</v>
@@ -9966,7 +9969,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
@@ -9986,7 +9989,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
@@ -10006,10 +10009,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
         <v>33</v>
@@ -10026,10 +10029,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
         <v>33</v>
@@ -10046,10 +10049,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B48" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C48" t="s">
         <v>33</v>
@@ -10066,10 +10069,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
@@ -10086,7 +10089,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -10095,18 +10098,18 @@
         <v>34</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -10115,98 +10118,98 @@
         <v>34</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C52" t="s">
         <v>34</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C53" t="s">
         <v>34</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B54" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C54" t="s">
         <v>34</v>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B55" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C55" t="s">
         <v>34</v>
       </c>
       <c r="D55">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B56" t="s">
         <v>25</v>
@@ -10226,7 +10229,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B57" t="s">
         <v>25</v>
@@ -10246,10 +10249,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C58" t="s">
         <v>35</v>
@@ -10266,10 +10269,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
         <v>35</v>
@@ -10286,10 +10289,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C60" t="s">
         <v>35</v>
@@ -10306,10 +10309,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C61" t="s">
         <v>35</v>
@@ -10326,7 +10329,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
@@ -10346,7 +10349,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
@@ -10366,10 +10369,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C64" t="s">
         <v>36</v>
@@ -10386,10 +10389,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
         <v>36</v>
@@ -10406,10 +10409,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B66" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C66" t="s">
         <v>36</v>
@@ -10426,10 +10429,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B67" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
@@ -10446,7 +10449,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B68" t="s">
         <v>25</v>
@@ -10466,7 +10469,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B69" t="s">
         <v>25</v>
@@ -10486,10 +10489,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
         <v>37</v>
@@ -10506,10 +10509,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
         <v>37</v>
@@ -10526,10 +10529,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B72" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C72" t="s">
         <v>37</v>
@@ -10546,10 +10549,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B73" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C73" t="s">
         <v>37</v>
@@ -10566,7 +10569,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B74" t="s">
         <v>25</v>
@@ -10586,7 +10589,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B75" t="s">
         <v>25</v>
@@ -10606,10 +10609,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C76" t="s">
         <v>38</v>
@@ -10626,10 +10629,10 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B77" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C77" t="s">
         <v>38</v>
@@ -10646,10 +10649,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B78" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C78" t="s">
         <v>38</v>
@@ -10666,10 +10669,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B79" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C79" t="s">
         <v>38</v>
@@ -10686,7 +10689,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B80" t="s">
         <v>25</v>
@@ -10706,7 +10709,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B81" t="s">
         <v>25</v>
@@ -10726,10 +10729,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B82" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C82" t="s">
         <v>39</v>
@@ -10746,10 +10749,10 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C83" t="s">
         <v>39</v>
@@ -10766,10 +10769,10 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B84" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C84" t="s">
         <v>39</v>
@@ -10786,10 +10789,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B85" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C85" t="s">
         <v>39</v>
@@ -10806,7 +10809,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B86" t="s">
         <v>25</v>
@@ -10826,7 +10829,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B87" t="s">
         <v>25</v>
@@ -10846,10 +10849,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
         <v>40</v>
@@ -10866,10 +10869,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C89" t="s">
         <v>40</v>
@@ -10886,10 +10889,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B90" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C90" t="s">
         <v>40</v>
@@ -10906,10 +10909,10 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B91" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C91" t="s">
         <v>40</v>
@@ -10926,7 +10929,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B92" t="s">
         <v>25</v>
@@ -10946,7 +10949,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B93" t="s">
         <v>25</v>
@@ -10966,10 +10969,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C94" t="s">
         <v>41</v>
@@ -10986,10 +10989,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C95" t="s">
         <v>41</v>
@@ -11006,10 +11009,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B96" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C96" t="s">
         <v>41</v>
@@ -11026,10 +11029,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B97" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C97" t="s">
         <v>41</v>
@@ -11046,7 +11049,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B98" t="s">
         <v>25</v>
@@ -11066,7 +11069,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B99" t="s">
         <v>25</v>
@@ -11086,10 +11089,10 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C100" t="s">
         <v>42</v>
@@ -11106,10 +11109,10 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B101" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
         <v>42</v>
@@ -11126,10 +11129,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B102" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C102" t="s">
         <v>42</v>
@@ -11146,10 +11149,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B103" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C103" t="s">
         <v>42</v>
@@ -11166,7 +11169,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B104" t="s">
         <v>25</v>
@@ -11186,7 +11189,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B105" t="s">
         <v>25</v>
@@ -11206,10 +11209,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B106" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C106" t="s">
         <v>43</v>
@@ -11226,10 +11229,10 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B107" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C107" t="s">
         <v>43</v>
@@ -11246,10 +11249,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B108" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C108" t="s">
         <v>43</v>
@@ -11266,10 +11269,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B109" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C109" t="s">
         <v>43</v>
@@ -11286,7 +11289,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B110" t="s">
         <v>25</v>
@@ -11306,7 +11309,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B111" t="s">
         <v>25</v>
@@ -11326,10 +11329,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B112" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C112" t="s">
         <v>44</v>
@@ -11346,10 +11349,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B113" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C113" t="s">
         <v>44</v>
@@ -11366,10 +11369,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B114" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C114" t="s">
         <v>44</v>
@@ -11386,10 +11389,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B115" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C115" t="s">
         <v>44</v>
@@ -11406,7 +11409,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B116" t="s">
         <v>25</v>
@@ -11426,7 +11429,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B117" t="s">
         <v>25</v>
@@ -11446,10 +11449,10 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B118" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C118" t="s">
         <v>45</v>
@@ -11466,10 +11469,10 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B119" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C119" t="s">
         <v>45</v>
@@ -11486,10 +11489,10 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B120" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C120" t="s">
         <v>45</v>
@@ -11506,10 +11509,10 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B121" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C121" t="s">
         <v>45</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B122" t="s">
         <v>25</v>
@@ -11546,7 +11549,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B123" t="s">
         <v>25</v>
@@ -11566,10 +11569,10 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B124" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C124" t="s">
         <v>46</v>
@@ -11586,10 +11589,10 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B125" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C125" t="s">
         <v>46</v>
@@ -11606,10 +11609,10 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B126" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C126" t="s">
         <v>46</v>
@@ -11626,10 +11629,10 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B127" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C127" t="s">
         <v>46</v>
@@ -11646,7 +11649,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B128" t="s">
         <v>25</v>
@@ -11666,7 +11669,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B129" t="s">
         <v>25</v>
@@ -11686,10 +11689,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C130" t="s">
         <v>47</v>
@@ -11706,10 +11709,10 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B131" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C131" t="s">
         <v>47</v>
@@ -11726,10 +11729,10 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B132" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C132" t="s">
         <v>47</v>
@@ -11746,10 +11749,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B133" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C133" t="s">
         <v>47</v>
@@ -11766,7 +11769,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B134" t="s">
         <v>25</v>
@@ -11786,7 +11789,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B135" t="s">
         <v>25</v>
@@ -11806,10 +11809,10 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B136" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C136" t="s">
         <v>48</v>
@@ -11826,10 +11829,10 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B137" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C137" t="s">
         <v>48</v>
@@ -11846,10 +11849,10 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B138" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C138" t="s">
         <v>48</v>
@@ -11866,10 +11869,10 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B139" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C139" t="s">
         <v>48</v>
@@ -11886,7 +11889,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B140" t="s">
         <v>25</v>
@@ -11906,7 +11909,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B141" t="s">
         <v>25</v>
@@ -11926,10 +11929,10 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B142" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C142" t="s">
         <v>49</v>
@@ -11946,10 +11949,10 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B143" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C143" t="s">
         <v>49</v>
@@ -11966,10 +11969,10 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B144" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C144" t="s">
         <v>49</v>
@@ -11986,10 +11989,10 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B145" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C145" t="s">
         <v>49</v>
@@ -12006,7 +12009,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B146" t="s">
         <v>25</v>
@@ -12026,7 +12029,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B147" t="s">
         <v>25</v>
@@ -12046,10 +12049,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B148" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C148" t="s">
         <v>50</v>
@@ -12066,10 +12069,10 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B149" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C149" t="s">
         <v>50</v>
@@ -12086,10 +12089,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B150" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C150" t="s">
         <v>50</v>
@@ -12106,10 +12109,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B151" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C151" t="s">
         <v>50</v>
@@ -12126,7 +12129,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B152" t="s">
         <v>25</v>
@@ -12146,7 +12149,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B153" t="s">
         <v>25</v>
@@ -12166,10 +12169,10 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B154" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C154" t="s">
         <v>51</v>
@@ -12186,10 +12189,10 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B155" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C155" t="s">
         <v>51</v>
@@ -12206,10 +12209,10 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B156" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C156" t="s">
         <v>51</v>
@@ -12226,10 +12229,10 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B157" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C157" t="s">
         <v>51</v>
@@ -12246,7 +12249,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B158" t="s">
         <v>25</v>
@@ -12255,18 +12258,18 @@
         <v>52</v>
       </c>
       <c r="D158">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E158">
         <v>1</v>
       </c>
       <c r="F158">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B159" t="s">
         <v>25</v>
@@ -12275,98 +12278,98 @@
         <v>52</v>
       </c>
       <c r="D159">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E159">
         <v>1</v>
       </c>
       <c r="F159">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B160" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C160" t="s">
         <v>52</v>
       </c>
       <c r="D160">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
       <c r="F160">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B161" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C161" t="s">
         <v>52</v>
       </c>
       <c r="D161">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E161">
         <v>1</v>
       </c>
       <c r="F161">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B162" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C162" t="s">
         <v>52</v>
       </c>
       <c r="D162">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E162">
         <v>1</v>
       </c>
       <c r="F162">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B163" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C163" t="s">
         <v>52</v>
       </c>
       <c r="D163">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E163">
         <v>1</v>
       </c>
       <c r="F163">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B164" t="s">
         <v>25</v>
@@ -12386,7 +12389,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B165" t="s">
         <v>25</v>
@@ -12406,10 +12409,10 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B166" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C166" t="s">
         <v>53</v>
@@ -12426,10 +12429,10 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B167" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C167" t="s">
         <v>53</v>
@@ -12446,10 +12449,10 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B168" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C168" t="s">
         <v>53</v>
@@ -12466,10 +12469,10 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B169" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C169" t="s">
         <v>53</v>
@@ -12486,7 +12489,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B170" t="s">
         <v>25</v>
@@ -12506,7 +12509,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B171" t="s">
         <v>25</v>
@@ -12526,10 +12529,10 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C172" t="s">
         <v>54</v>
@@ -12546,10 +12549,10 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B173" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C173" t="s">
         <v>54</v>
@@ -12566,10 +12569,10 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B174" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C174" t="s">
         <v>54</v>
@@ -12586,10 +12589,10 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B175" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C175" t="s">
         <v>54</v>
@@ -12606,7 +12609,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B176" t="s">
         <v>25</v>
@@ -12615,18 +12618,18 @@
         <v>55</v>
       </c>
       <c r="D176">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E176">
         <v>1</v>
       </c>
       <c r="F176">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B177" t="s">
         <v>25</v>
@@ -12635,98 +12638,98 @@
         <v>55</v>
       </c>
       <c r="D177">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
       <c r="F177">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C178" t="s">
         <v>55</v>
       </c>
       <c r="D178">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B179" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C179" t="s">
         <v>55</v>
       </c>
       <c r="D179">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B180" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C180" t="s">
         <v>55</v>
       </c>
       <c r="D180">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B181" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C181" t="s">
         <v>55</v>
       </c>
       <c r="D181">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B182" t="s">
         <v>25</v>
@@ -12746,7 +12749,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B183" t="s">
         <v>25</v>
@@ -12766,10 +12769,10 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B184" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C184" t="s">
         <v>56</v>
@@ -12786,10 +12789,10 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B185" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C185" t="s">
         <v>56</v>
@@ -12806,10 +12809,10 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B186" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C186" t="s">
         <v>56</v>
@@ -12826,10 +12829,10 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B187" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C187" t="s">
         <v>56</v>
